--- a/biology/Zoologie/Catocala/Catocala.xlsx
+++ b/biology/Zoologie/Catocala/Catocala.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Catocala ou Catocale (du grec kato, « dessous », et kalos, « beau » en référence à ses ailes postérieures, généralement rouges à orange avec des bandes noires, cachées au repos sous des ailes antérieures de couleur cryptique)[1] est un genre de lépidoptères (papillons) nocturnes de la famille des Erebidae et de la sous-famille des Erebinae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Catocala ou Catocale (du grec kato, « dessous », et kalos, « beau » en référence à ses ailes postérieures, généralement rouges à orange avec des bandes noires, cachées au repos sous des ailes antérieures de couleur cryptique) est un genre de lépidoptères (papillons) nocturnes de la famille des Erebidae et de la sous-famille des Erebinae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Lichénée, likenée, en référence aux ailes supérieures de couleur cryptique qui ressemblent au lichen. Ce cryptisme permet aux catocales de se fondre avec l'écorce des arbres sur lesquels ils se posent[2].
-Les taxonomistes, fascinés par la beauté de ces ailes inférieures qui leur évoquaient peut-être des sous-vêtements féminins affriolants, leur ont donné souvent une épithète spécifique très suggestive : Catocala promissa la promise, Catocala sponsa la fiancée, Catocala nupta la mariée, Catocala diversa la répudiée[3]…</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Lichénée, likenée, en référence aux ailes supérieures de couleur cryptique qui ressemblent au lichen. Ce cryptisme permet aux catocales de se fondre avec l'écorce des arbres sur lesquels ils se posent.
+Les taxonomistes, fascinés par la beauté de ces ailes inférieures qui leur évoquaient peut-être des sous-vêtements féminins affriolants, leur ont donné souvent une épithète spécifique très suggestive : Catocala promissa la promise, Catocala sponsa la fiancée, Catocala nupta la mariée, Catocala diversa la répudiée…</t>
         </is>
       </c>
     </row>
@@ -542,13 +556,15 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon FUNET Tree of Life  (26 janvier 2021)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon FUNET Tree of Life  (26 janvier 2021) :
 Catocala abacta Staudinger, 1900
 Catocala abamita Bremer &amp; Grey, 1853
 Catocala actaea Felder &amp; Rogenhofer, 1874
-Catocala aestimabilis Staudinger, [1892]
+Catocala aestimabilis Staudinger, 
 Catocala afghana Swinhoe, 1885
 Catocala amabilis Bang-Haas, 1907
 Catocala ariana (Vartian, 1964)
@@ -564,7 +580,7 @@
 Catocala columbina Leech, 1900
 Catocala conjuncta (Esper, 1787) — la Conjointe
 Catocala connexa Butler, 1881
-Catocala contemnenda Staudinger, [1892]
+Catocala contemnenda Staudinger, 
 Catocala conversa (Esper, 1787) — la Compagne
 Catocala danilovi (Bang-Haas, 1927)
 Catocala dariana Sviridov, Speidel &amp; Reshöft, 1996
@@ -573,11 +589,11 @@
 Catocala detrita Warren, 1913
 Catocala deuteronympha Staudinger, 1861
 Catocala didenko Kons, Borth &amp; Saldaitis, 2016
-Catocala dilecta (Hübner, [1808]) — la Bien-Aimée
-Catocala disjuncta (Geyer, [1828])
+Catocala dilecta (Hübner, ) — la Bien-Aimée
+Catocala disjuncta (Geyer, )
 Catocala dissimilis  Bremer, 1861
 Catocala distorta Butler, 1889
-Catocala diversa (Geyer, [1826]) — la Répudiée
+Catocala diversa (Geyer, ) — la Répudiée
 Catocala doerriesi Staudinger, 1888
 Catocala dotatoides Poole, 1989
 Catocala dula Bremer, 1861
@@ -618,7 +634,7 @@
 Catocala leechi Hampson, 1913 
 Catocala lesbia Christoph, 1887
 Catocala longipalpis (Mell, 1936)
-Catocala lupina Herrich-Schäffer, [1851] — la Démasquée
+Catocala lupina Herrich-Schäffer,  — la Démasquée
 Catocala luscinia Brandt, 1938
 Catocala maculata Vincent, 1919
 Catocala mariana Rambur, 1858 
@@ -646,24 +662,24 @@
 Catocala pataloides Mell, 1931
 Catocala persimilis Warren, 1888
 Catocala pirata (Herz, 1904)
-Catocala praegnax Walker, [1858]
-Catocala prolifica Walker, [1858]
+Catocala praegnax Walker, 
+Catocala prolifica Walker, 
 Catocala promissa ([Schiffermüller], 1775) — la Promise
 Catocala proxeneta Alphéraky, 1895
 Catocala pseudoformosana  Ishizuka, 2010
 Catocala pudica Moore, 1879
 Catocala puella Leech, 1889
 Catocala puerpera (Giorna, 1791) — la Lichénée miniacée
-Catocala rama Moore, [1885]
+Catocala rama Moore, 
 Catocala repudiata Staudinger, 1888
-Catocala remissa Staudinger, [1892]
+Catocala remissa Staudinger, 
 Catocala rhodosoma Röber, 1927
 Catocala seiohbo Ishizuka, 2002
 Catocala separans Leech, 1889
 Catocala separata Freyer, 1846
 Catocala siamensis Kishida &amp; Suzuki, 2002
 Catocala sponsa (Linnaeus, 1767) — la Fiancée
-Catocala sponsalis Walker, [1858]
+Catocala sponsalis Walker, 
 Catocala streckeri Staudinger, 1888
 Catocala tapestrina Moore, 1882
 Catocala timur Bang-Haas, 1907
@@ -673,12 +689,12 @@
 Catocala weigerti Hacker, 1999
 Catocala wushensis Okano, 1964
 Catocala mabella Holland, 1889
-Catocala agitatrix Graeser, [1889]
+Catocala agitatrix Graeser, 
 Catocala fulminea (Scopoli, 1763) — la Lichénée jaune
 Catocala invasa Leech, 1900
 Catocala xarippe Butler, 1877
 Catocala nupta (Linnaeus, 1767) — la Mariée
-Catocala concubia Walker, [1858]
+Catocala concubia Walker, 
 Catocala benediki Borth, Kons, Saldaitis &amp; Gall, 2017
 Catocala adultera Ménétriés, 1856
 Catocala neglecta Staudinger, 1888
@@ -696,9 +712,9 @@
 Catocala innubens Guenée, 1852
 Catocala piatrix Grote, 1864
 Catocala consors (Smith, 1797)
-Catocala epione (Drury, [1773])
+Catocala epione (Drury, )
 Catocala muliercula Guenée, 1852
-Catocala antinympha (Hübner, [1823])
+Catocala antinympha (Hübner, )
 Catocala badia Grote &amp; Robinson, 1866
 Catocala habilis Grote, 1872
 Catocala serena Edwards, 1864
@@ -725,12 +741,12 @@
 Catocala subnata Grote, 1864
 Catocala neogama (Smith, 1797)
 Catocala aholibah Strecker, 1874
-Catocala ilia (Cramer, [1776])
+Catocala ilia (Cramer, )
 Catocala umbrosa Brou, 2002
 Catocala cerogama Guenée, 1852
-Catocala relicta Walker, [1858]
+Catocala relicta Walker, 
 Catocala marmorata Edwards, 1864
-Catocala unijuga Walker, [1858]
+Catocala unijuga Walker, 
 Catocala parta Guenée, 1852
 Catocala irene Behr, 1870
 Catocala luciana Strecker, 1874
@@ -742,13 +758,13 @@
 Catocala semirelicta Grote, 1874
 Catocala meskei Grote, 1873
 Catocala jessica H. Edwards, 1877
-Catocala junctura Walker, [1858]
+Catocala junctura Walker, 
 Catocala texanae French, 1902
-Catocala electilis Walker, [1858]
+Catocala electilis Walker, 
 Catocala cara Guenée, 1852
 Catocala carissima Hulst, 1880
-Catocala concumbens Walker, [1858]
-Catocala amatrix (Hübner, [1813])
+Catocala concumbens Walker, 
+Catocala amatrix (Hübner, )
 Catocala delilah Strecker, 1874
 Catocala desdemona H. Edwards, 1882
 Catocala caesia awks, 2010
@@ -757,9 +773,9 @@
 Catocala andromache H. Edwards, 1885
 Catocala mcdunnoughi Brower, 1937
 Catocala chelidonia Grote, 1881
-Catocala illecta Walker, [1858]
+Catocala illecta Walker, 
 Catocala abbreviatella Grote, 1872
-Catocala nuptialis Walker, [1858]
+Catocala nuptialis Walker, 
 Catocala whitneyi Dodge, 1874
 Catocala slotteni Kons &amp; Borth, 2016
 Catocala amestris Strecker, 1874
@@ -784,7 +800,7 @@
 Catocala ventura Borth &amp; Kons, 2016
 Catocala johnsoniana Brower, 1976
 Catocala mira Grote, 1876
-Catocala grynea (Cramer, [1780])
+Catocala grynea (Cramer, )
 Catocala crataegi Saunders, 1876
 Catocala praeclara Grote &amp; Robinson, 1866
 Catocala lincolnana Brower, 1976
